--- a/biology/Zoologie/Eciton_burchellii/Eciton_burchellii.xlsx
+++ b/biology/Zoologie/Eciton_burchellii/Eciton_burchellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eciton burchellii est une espèce sud-américaine de fourmis légionnaires de la sous-famille des Dorylinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Eciton burchellii a été décrite pour la première fois en 1842 par l'entomologiste britannique John Obadiah Westwood (1805-1893) sous le protonyme Labidus burchellii[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eciton burchellii a été décrite pour la première fois en 1842 par l'entomologiste britannique John Obadiah Westwood (1805-1893) sous le protonyme Labidus burchellii,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Sud et en Amérique centrale[3]. Elle est présente aux altitudes comprises entre 6 et 2 050 m avec une altitude moyenne de 384 m[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Sud et en Amérique centrale. Elle est présente aux altitudes comprises entre 6 et 2 050 m avec une altitude moyenne de 384 m.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce présente un haut degré de polymorphisme. Les ouvrières sont réparties en quatre castes : mineures, medias, porteurs et soldats[4],[5]. Leurs colonies alternent des phases de migration et de bivouac.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce présente un haut degré de polymorphisme. Les ouvrières sont réparties en quatre castes : mineures, medias, porteurs et soldats,. Leurs colonies alternent des phases de migration et de bivouac.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (15 novembre 2022)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (15 novembre 2022) :
 sous-espèce Eciton burchellii cupiens Santschi, 1923
 sous-espèce Eciton burchellii foreli  Mayr, 1886
 sous-espèce Eciton burchellii parvispinum  Forel, 1899
@@ -638,9 +658,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, burchellii, lui a été donnée en l'honneur du naturaliste britannique William John Burchell qui a collecté le spécimen type à Santos (État de São Paulo, Brésil) le 30 octobre 1826[2]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, burchellii, lui a été donnée en l'honneur du naturaliste britannique William John Burchell qui a collecté le spécimen type à Santos (État de São Paulo, Brésil) le 30 octobre 1826. 
 </t>
         </is>
       </c>
@@ -669,7 +691,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Sous le taxon Labidus burchellii :
 (en) J. O. Westwood, « Monograph of the Hymenopterous Group, Dorylides », Arcana entomologica, or, Illustrations of new, rare, and interesting insects, Londres, vol. 1, no 5,‎ 1842, p. 65-89 (lire en ligne, consulté le 15 novembre 2022).</t>
